--- a/data/trans_orig/P33_1_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>33540</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23438</v>
+        <v>24075</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45890</v>
+        <v>44888</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05811606836129163</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0406129272244493</v>
+        <v>0.04171565340506637</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07951590581542767</v>
+        <v>0.07777944953006155</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -765,19 +765,19 @@
         <v>51879</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38552</v>
+        <v>39033</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>66078</v>
+        <v>67886</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0564598513344488</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04195618185040539</v>
+        <v>0.04247942781705406</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07191170756697964</v>
+        <v>0.07387989016893097</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -786,19 +786,19 @@
         <v>85419</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>68252</v>
+        <v>68490</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>104903</v>
+        <v>106414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05709877680405155</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04562329428357453</v>
+        <v>0.04578269861309626</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07012282090788326</v>
+        <v>0.07113294792282678</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>115013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>97801</v>
+        <v>96615</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>136469</v>
+        <v>135794</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.199290603755781</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1694667746889376</v>
+        <v>0.1674110350041518</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2364678591202433</v>
+        <v>0.2352993425720396</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>276</v>
@@ -836,19 +836,19 @@
         <v>284486</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>256380</v>
+        <v>257834</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>311902</v>
+        <v>313917</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3096030969467147</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2790150655418401</v>
+        <v>0.2805972372239042</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3394397507282458</v>
+        <v>0.3416322638090166</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>389</v>
@@ -857,19 +857,19 @@
         <v>399499</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>367217</v>
+        <v>367608</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>434494</v>
+        <v>432700</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2670474050459838</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2454682676018086</v>
+        <v>0.245729435908371</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2904396541360614</v>
+        <v>0.289240864169764</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>428560</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>406727</v>
+        <v>406759</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>448873</v>
+        <v>448494</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7425933278829274</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7047622397996067</v>
+        <v>0.7048173224858872</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7777912999232134</v>
+        <v>0.7771332903286535</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>558</v>
@@ -907,19 +907,19 @@
         <v>582508</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>552363</v>
+        <v>553057</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>611138</v>
+        <v>612534</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6339370517188365</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.60112983880986</v>
+        <v>0.601885863114743</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6650943900620608</v>
+        <v>0.6666133919085703</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>977</v>
@@ -928,19 +928,19 @@
         <v>1011068</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>972245</v>
+        <v>976736</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1044537</v>
+        <v>1045055</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6758538181499647</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6499027380579818</v>
+        <v>0.6529047892840368</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6982264612209674</v>
+        <v>0.6985727633963896</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>43494</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>32321</v>
+        <v>31587</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>58562</v>
+        <v>57319</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04068585792003523</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03023396551184221</v>
+        <v>0.02954759963170779</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0547810564434578</v>
+        <v>0.05361806688860968</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>35</v>
@@ -1053,19 +1053,19 @@
         <v>35934</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>25363</v>
+        <v>24455</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>49044</v>
+        <v>48901</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03410801419511042</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02407467013702213</v>
+        <v>0.02321260604884927</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04655181381617585</v>
+        <v>0.0464165395720056</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>78</v>
@@ -1074,19 +1074,19 @@
         <v>79428</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>63528</v>
+        <v>63426</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>98957</v>
+        <v>98263</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03742095411540378</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02992998108950006</v>
+        <v>0.02988172843381531</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04662163973508685</v>
+        <v>0.04629467808627383</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>160459</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>138101</v>
+        <v>138005</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>186113</v>
+        <v>185204</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1500979841024361</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1291838637212886</v>
+        <v>0.1290943547796241</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.174095491735844</v>
+        <v>0.1732453383896285</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>205</v>
@@ -1124,19 +1124,19 @@
         <v>214949</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>188658</v>
+        <v>188670</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>241444</v>
+        <v>240476</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2040279660940217</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1790729492973327</v>
+        <v>0.1790840353056437</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2291771673405399</v>
+        <v>0.2282578604136059</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>359</v>
@@ -1145,19 +1145,19 @@
         <v>375408</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>339470</v>
+        <v>337013</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>414688</v>
+        <v>411615</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1768660574637482</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1599347214580454</v>
+        <v>0.1587770230012165</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1953720416849345</v>
+        <v>0.1939243163920887</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>865075</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>838185</v>
+        <v>840242</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>889971</v>
+        <v>891230</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8092161579775287</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7840630186131644</v>
+        <v>0.7859869643014523</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8325048965447597</v>
+        <v>0.8336825711244827</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>784</v>
@@ -1195,19 +1195,19 @@
         <v>802644</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>775100</v>
+        <v>774390</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>831806</v>
+        <v>829298</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7618640197108679</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7357188233591014</v>
+        <v>0.7350452740087743</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.789544131940897</v>
+        <v>0.7871638449736258</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1634</v>
@@ -1216,19 +1216,19 @@
         <v>1667719</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1629059</v>
+        <v>1624752</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1706295</v>
+        <v>1703490</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.785712988420848</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7674991477396016</v>
+        <v>0.7654700642078727</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8038873762449836</v>
+        <v>0.8025655787651677</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>40727</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28771</v>
+        <v>29823</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>55981</v>
+        <v>55790</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03692812363029646</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.026087180467537</v>
+        <v>0.02704115241790011</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05075916408843031</v>
+        <v>0.05058562743986193</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -1341,19 +1341,19 @@
         <v>23506</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14645</v>
+        <v>15070</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35124</v>
+        <v>35158</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02381286290493324</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01483621010659285</v>
+        <v>0.01526692682166338</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03558373983626922</v>
+        <v>0.03561790336364196</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>61</v>
@@ -1362,19 +1362,19 @@
         <v>64233</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>50939</v>
+        <v>47877</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>84451</v>
+        <v>83707</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03073377599612133</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02437328365225771</v>
+        <v>0.02290789031402186</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04040776202652248</v>
+        <v>0.04005187789942397</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>118079</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>98566</v>
+        <v>95621</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>142065</v>
+        <v>139878</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1070649805270475</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08937175289101096</v>
+        <v>0.08670207146405727</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1288137509409724</v>
+        <v>0.1268304057222276</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>123</v>
@@ -1412,19 +1412,19 @@
         <v>124127</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>104906</v>
+        <v>104695</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>146890</v>
+        <v>145065</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.125750214410456</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1062773298588336</v>
+        <v>0.1060635765046832</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1488102346475269</v>
+        <v>0.1469613679441769</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>239</v>
@@ -1433,19 +1433,19 @@
         <v>242206</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>215105</v>
+        <v>210592</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>273606</v>
+        <v>271211</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1158900307279839</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1029227242527239</v>
+        <v>0.1007631193943928</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1309140172498947</v>
+        <v>0.129768091145489</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>944068</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>918024</v>
+        <v>918108</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>965879</v>
+        <v>968907</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8560068958426561</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8323922408482111</v>
+        <v>0.8324682768403816</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8757835709817843</v>
+        <v>0.8785291974014913</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>830</v>
@@ -1483,19 +1483,19 @@
         <v>839460</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>816023</v>
+        <v>814696</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>860019</v>
+        <v>859311</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8504369226846108</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.826692672938325</v>
+        <v>0.8253486767834232</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8712647203246227</v>
+        <v>0.8705468945603602</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1758</v>
@@ -1504,19 +1504,19 @@
         <v>1783528</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1749764</v>
+        <v>1750895</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1814696</v>
+        <v>1816096</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8533761932758948</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8372210235592703</v>
+        <v>0.8377618295229297</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8682890857537444</v>
+        <v>0.8689589932407026</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>19108</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11574</v>
+        <v>11496</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28894</v>
+        <v>28823</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04393796513166177</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02661549487272335</v>
+        <v>0.02643595974020215</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06644063701931546</v>
+        <v>0.06627879162257422</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -1629,19 +1629,19 @@
         <v>18077</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11119</v>
+        <v>11109</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28741</v>
+        <v>28204</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05406209415373092</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03325288968298951</v>
+        <v>0.0332242597862647</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0859555756259576</v>
+        <v>0.08434953620420323</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -1653,16 +1653,16 @@
         <v>26561</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50997</v>
+        <v>51380</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04833866882370965</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03452798768356424</v>
+        <v>0.03452803625352943</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06629382783716876</v>
+        <v>0.06679193999586763</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>55930</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>43016</v>
+        <v>44086</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>71850</v>
+        <v>73590</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1286107963487098</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0989162234113688</v>
+        <v>0.1013755610139043</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1652188213523199</v>
+        <v>0.169219896381168</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>38</v>
@@ -1700,19 +1700,19 @@
         <v>38177</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27867</v>
+        <v>26959</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>51204</v>
+        <v>50636</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1141734786630838</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0833396939227601</v>
+        <v>0.08062445423839364</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1531351202751269</v>
+        <v>0.1514344006885824</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>92</v>
@@ -1721,19 +1721,19 @@
         <v>94107</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>76340</v>
+        <v>77367</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>113509</v>
+        <v>115014</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1223352582649984</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09923931732069029</v>
+        <v>0.1005741011716102</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1475575511885781</v>
+        <v>0.149513840873435</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>359840</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>344056</v>
+        <v>342577</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>374489</v>
+        <v>375148</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8274512385196284</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7911568982138025</v>
+        <v>0.7877570619723608</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8611380823425969</v>
+        <v>0.8626541972980953</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>278</v>
@@ -1771,19 +1771,19 @@
         <v>278120</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>262277</v>
+        <v>263174</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>290626</v>
+        <v>291307</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8317644271831852</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7843811943486242</v>
+        <v>0.7870659212180658</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8691641603732497</v>
+        <v>0.871201022833521</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>628</v>
@@ -1792,19 +1792,19 @@
         <v>637960</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>616351</v>
+        <v>615659</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>658113</v>
+        <v>658843</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8293260729112919</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8012353869573656</v>
+        <v>0.8003350481293382</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8555240849003337</v>
+        <v>0.8564739656292488</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>136868</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>115901</v>
+        <v>117269</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>160795</v>
+        <v>164186</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04298780628255818</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03640236899959168</v>
+        <v>0.03683206294661676</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.050502749641914</v>
+        <v>0.05156761741593077</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>121</v>
@@ -1917,19 +1917,19 @@
         <v>129396</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>109129</v>
+        <v>108167</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>153441</v>
+        <v>153348</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03928380431316351</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0331310418383506</v>
+        <v>0.03283902893928724</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04658368773752933</v>
+        <v>0.0465556685008755</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>257</v>
@@ -1938,19 +1938,19 @@
         <v>266264</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>234514</v>
+        <v>237253</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>298866</v>
+        <v>304420</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04110436280735129</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03620289109124455</v>
+        <v>0.03662572278014456</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04613721861212043</v>
+        <v>0.0469947075640629</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>449481</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>411778</v>
+        <v>412138</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>492317</v>
+        <v>494343</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1411735005279222</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1293315693062723</v>
+        <v>0.1294448628621996</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1546274363154611</v>
+        <v>0.1552637820528099</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>642</v>
@@ -1988,19 +1988,19 @@
         <v>661739</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>621475</v>
+        <v>615025</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>715003</v>
+        <v>708191</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2009002664849476</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1886764946213544</v>
+        <v>0.1867180211885744</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2170708948591003</v>
+        <v>0.215002826335151</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1079</v>
@@ -2009,19 +2009,19 @@
         <v>1111220</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1048525</v>
+        <v>1049473</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1171931</v>
+        <v>1171142</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1715438914095861</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1618654680856411</v>
+        <v>0.1620118117815024</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.180916046481555</v>
+        <v>0.1807943777952846</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>2597541</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2551289</v>
+        <v>2546221</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2638332</v>
+        <v>2639217</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8158386931895196</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8013117439262256</v>
+        <v>0.7997197554182383</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8286502192511221</v>
+        <v>0.8289283451893167</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2450</v>
@@ -2059,19 +2059,19 @@
         <v>2502733</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2450040</v>
+        <v>2454984</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2549376</v>
+        <v>2558089</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7598159292018889</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7438185256087555</v>
+        <v>0.7453194205981309</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7739762410293595</v>
+        <v>0.7766215107152078</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4997</v>
@@ -2080,19 +2080,19 @@
         <v>5100275</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5033303</v>
+        <v>5031402</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5166661</v>
+        <v>5167220</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7873517457830626</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7770130582444199</v>
+        <v>0.7767195396727257</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7976001050474445</v>
+        <v>0.7976863631509117</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>81059</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65375</v>
+        <v>64734</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>101744</v>
+        <v>99817</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07782519896727357</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06276607355930777</v>
+        <v>0.06215104921605628</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09768434377535762</v>
+        <v>0.09583387791984063</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>56</v>
@@ -2445,19 +2445,19 @@
         <v>61400</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46620</v>
+        <v>46807</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>77891</v>
+        <v>80510</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05487307670627908</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04166442813264457</v>
+        <v>0.04183095190361716</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06961073334495092</v>
+        <v>0.07195169637904235</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>130</v>
@@ -2466,19 +2466,19 @@
         <v>142459</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>120071</v>
+        <v>120358</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>169572</v>
+        <v>168887</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06593806959686739</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05557550732055207</v>
+        <v>0.05570851296873269</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07848743086266728</v>
+        <v>0.07817010674301739</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>252149</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>224604</v>
+        <v>224398</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>281017</v>
+        <v>282379</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2420885513450938</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2156420163931847</v>
+        <v>0.215444807882729</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2698046828254849</v>
+        <v>0.2711125133295333</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>332</v>
@@ -2516,19 +2516,19 @@
         <v>363302</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>329144</v>
+        <v>327564</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>395273</v>
+        <v>396132</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3246826700900891</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2941550507069637</v>
+        <v>0.2927432183788389</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3532543184690458</v>
+        <v>0.3540224626177377</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>566</v>
@@ -2537,19 +2537,19 @@
         <v>615452</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>571024</v>
+        <v>565735</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>656824</v>
+        <v>657511</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2848648560193225</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2643013367787118</v>
+        <v>0.2618531553175739</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3040143902824461</v>
+        <v>0.3043320059226922</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>708349</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>676230</v>
+        <v>676717</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>738472</v>
+        <v>738810</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6800862496876326</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6492482244982807</v>
+        <v>0.6497160360730011</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7090074286508136</v>
+        <v>0.7093312884841699</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>642</v>
@@ -2587,19 +2587,19 @@
         <v>694244</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>660657</v>
+        <v>661478</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>729106</v>
+        <v>729613</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6204442532036318</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5904279934129479</v>
+        <v>0.5911612361194408</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6516008618272776</v>
+        <v>0.6520534174548777</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1310</v>
@@ -2608,19 +2608,19 @@
         <v>1402593</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1360497</v>
+        <v>1356676</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1449325</v>
+        <v>1450479</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.64919707438381</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6297126421396503</v>
+        <v>0.6279440816788546</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6708270831448462</v>
+        <v>0.6713612926820633</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>49906</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>36390</v>
+        <v>36900</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>65060</v>
+        <v>64765</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05133807315930556</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03743400956244227</v>
+        <v>0.03795897379318969</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06692708506435953</v>
+        <v>0.0666238488287942</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>54</v>
@@ -2733,19 +2733,19 @@
         <v>58209</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44528</v>
+        <v>42955</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>74566</v>
+        <v>74717</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05323768395127096</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04072530096002093</v>
+        <v>0.03928710617420559</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06819812315277572</v>
+        <v>0.06833647029349715</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>100</v>
@@ -2754,19 +2754,19 @@
         <v>108115</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>88982</v>
+        <v>89705</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>132025</v>
+        <v>130626</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05234364268096402</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04308066006398664</v>
+        <v>0.04343043681795355</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06391996206371291</v>
+        <v>0.06324249248941255</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>178325</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>152118</v>
+        <v>154384</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>202623</v>
+        <v>203316</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1834424085484759</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1564831378062579</v>
+        <v>0.158814390682789</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2084374881297916</v>
+        <v>0.2091501538981132</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>275</v>
@@ -2804,19 +2804,19 @@
         <v>290723</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>259901</v>
+        <v>259942</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>320285</v>
+        <v>320571</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2658962023413413</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2377059576965747</v>
+        <v>0.2377429744074823</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2929330233557397</v>
+        <v>0.2931950332686025</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>443</v>
@@ -2825,19 +2825,19 @@
         <v>469049</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>430056</v>
+        <v>430260</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>508496</v>
+        <v>507950</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2270897821756981</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2082114642021994</v>
+        <v>0.2083100394633315</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2461883341245429</v>
+        <v>0.2459240547221775</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>743874</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>717368</v>
+        <v>716034</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>772818</v>
+        <v>770775</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7652195182922186</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7379530021304747</v>
+        <v>0.7365807798301046</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7949940413682822</v>
+        <v>0.7928927737363017</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>690</v>
@@ -2875,19 +2875,19 @@
         <v>744440</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>714358</v>
+        <v>713668</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>777125</v>
+        <v>777641</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6808661137073878</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6533534260369331</v>
+        <v>0.6527223411686929</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7107601943881016</v>
+        <v>0.7112319560599648</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1395</v>
@@ -2896,19 +2896,19 @@
         <v>1488314</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1444859</v>
+        <v>1445540</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1530818</v>
+        <v>1529008</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7205665751433379</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6995279071996692</v>
+        <v>0.699857516140422</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7411450135923836</v>
+        <v>0.7402688913298634</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>37296</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24858</v>
+        <v>26801</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51423</v>
+        <v>54381</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0422808610155703</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02818081009781384</v>
+        <v>0.0303830824058212</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05829600302145477</v>
+        <v>0.06164973396467816</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>31</v>
@@ -3021,19 +3021,19 @@
         <v>34196</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23934</v>
+        <v>23059</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>47330</v>
+        <v>48599</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03919611530843883</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02743280068277594</v>
+        <v>0.02643009691060914</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05424949266832647</v>
+        <v>0.05570466391445957</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>64</v>
@@ -3042,19 +3042,19 @@
         <v>71492</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>55463</v>
+        <v>55664</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>91567</v>
+        <v>90843</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04074697408552656</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03161078326057556</v>
+        <v>0.03172585237675463</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05218827131666193</v>
+        <v>0.05177593947543513</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>152883</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>131400</v>
+        <v>129545</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>177320</v>
+        <v>175428</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1733171556578501</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.148962853686794</v>
+        <v>0.1468601274707828</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2010204350112987</v>
+        <v>0.1988753008230818</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>198</v>
@@ -3092,19 +3092,19 @@
         <v>209681</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>185881</v>
+        <v>185508</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>236299</v>
+        <v>236559</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2403364298353495</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2130576293263038</v>
+        <v>0.2126302157587297</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2708468563100331</v>
+        <v>0.2711450612866593</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>347</v>
@@ -3113,19 +3113,19 @@
         <v>362563</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>330292</v>
+        <v>328869</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>395094</v>
+        <v>396999</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.206642427327481</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1882494157802412</v>
+        <v>0.187438148615348</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2251833770112888</v>
+        <v>0.2262691219575158</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>691920</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>665370</v>
+        <v>666515</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>716141</v>
+        <v>715894</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7844019833265796</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7543031059678791</v>
+        <v>0.7556013723949528</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8118599414344648</v>
+        <v>0.811579786784359</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>589</v>
@@ -3163,19 +3163,19 @@
         <v>628569</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>600843</v>
+        <v>601107</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>654361</v>
+        <v>654698</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7204674548562117</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6886875894103223</v>
+        <v>0.688990512152316</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7500300204352448</v>
+        <v>0.7504170356749389</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1234</v>
@@ -3184,19 +3184,19 @@
         <v>1320489</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1282872</v>
+        <v>1285670</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1354990</v>
+        <v>1356671</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7526105985869924</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.731170826679848</v>
+        <v>0.7327654767343288</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7722742576680111</v>
+        <v>0.7732322699677624</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>25174</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16917</v>
+        <v>16610</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39904</v>
+        <v>37157</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05023626113422395</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03375928729923359</v>
+        <v>0.03314513769249407</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07962927365455681</v>
+        <v>0.07414733939182522</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -3309,19 +3309,19 @@
         <v>27278</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19039</v>
+        <v>18002</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40142</v>
+        <v>40422</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06080707871490285</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04244075651659476</v>
+        <v>0.0401281687522699</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08948106222248585</v>
+        <v>0.09010647774635681</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>49</v>
@@ -3330,19 +3330,19 @@
         <v>52453</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39592</v>
+        <v>39162</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>68647</v>
+        <v>68742</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05522943237736334</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04168823211883695</v>
+        <v>0.04123529752475325</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07228127230821646</v>
+        <v>0.07238069870692386</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>104460</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>86218</v>
+        <v>85485</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>126333</v>
+        <v>123986</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2084531802685365</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1720516182762038</v>
+        <v>0.1705875770330645</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2521031678432309</v>
+        <v>0.2474181238981949</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>93</v>
@@ -3380,19 +3380,19 @@
         <v>101696</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>83807</v>
+        <v>83169</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>121112</v>
+        <v>120450</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2266925920219005</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1868162034436934</v>
+        <v>0.1853944903443027</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2699732461945243</v>
+        <v>0.2684980391955712</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>187</v>
@@ -3401,19 +3401,19 @@
         <v>206156</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>181552</v>
+        <v>178968</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>233772</v>
+        <v>233264</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2170686450198284</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.191162412154032</v>
+        <v>0.1884416259269436</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2461473919315003</v>
+        <v>0.2456126701504647</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>371484</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>348780</v>
+        <v>349072</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>391085</v>
+        <v>391141</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7413105585972395</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6960045760408282</v>
+        <v>0.6965866552917794</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.780424029303184</v>
+        <v>0.7805360831059235</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>290</v>
@@ -3451,19 +3451,19 @@
         <v>319633</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>297965</v>
+        <v>299291</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>340341</v>
+        <v>338224</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7125003292631966</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6642004439518671</v>
+        <v>0.66715529188978</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.758661645081277</v>
+        <v>0.7539436515760622</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>632</v>
@@ -3472,19 +3472,19 @@
         <v>691117</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>661513</v>
+        <v>660830</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>717296</v>
+        <v>721006</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7277019226028082</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6965313894669839</v>
+        <v>0.6958122211403353</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7552668441263252</v>
+        <v>0.7591730352076882</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>193436</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>166333</v>
+        <v>169677</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>223752</v>
+        <v>227329</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05694509460016407</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04896631905531795</v>
+        <v>0.04995082337692835</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06586990505606735</v>
+        <v>0.06692297081286694</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>166</v>
@@ -3597,19 +3597,19 @@
         <v>181084</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>156903</v>
+        <v>156421</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>211187</v>
+        <v>210812</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05124952318492397</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04440595580502388</v>
+        <v>0.04426957182843429</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05976924473733168</v>
+        <v>0.05966300574125186</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>343</v>
@@ -3618,19 +3618,19 @@
         <v>374519</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>335345</v>
+        <v>337595</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>414330</v>
+        <v>418735</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05404122226719232</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04838856549818298</v>
+        <v>0.04871327204827573</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0597856638279145</v>
+        <v>0.06042131541771716</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>687817</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>637910</v>
+        <v>635572</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>737200</v>
+        <v>740066</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2024849498620177</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1877928617978329</v>
+        <v>0.1871045976750472</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2170226261514988</v>
+        <v>0.2178662671918448</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>898</v>
@@ -3668,19 +3668,19 @@
         <v>965402</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>910043</v>
+        <v>917152</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1021820</v>
+        <v>1024049</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2732241616703787</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2575565288775231</v>
+        <v>0.2595685102888436</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2891911565759328</v>
+        <v>0.2898221313362344</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1543</v>
@@ -3689,19 +3689,19 @@
         <v>1653219</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1581472</v>
+        <v>1583713</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1727554</v>
+        <v>1729708</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2385511537685959</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2281983990835129</v>
+        <v>0.2285217712837059</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2492772015170234</v>
+        <v>0.2495881274643258</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>2515627</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2462416</v>
+        <v>2459519</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2568151</v>
+        <v>2569593</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7405699555378182</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7249052403239823</v>
+        <v>0.7240523635109224</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7560323630070191</v>
+        <v>0.7564568286032184</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2211</v>
@@ -3739,19 +3739,19 @@
         <v>2386885</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2331088</v>
+        <v>2327647</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2445257</v>
+        <v>2436096</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6755263151446974</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.659734728785662</v>
+        <v>0.6587611377011271</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6920465963182174</v>
+        <v>0.6894537621751883</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4571</v>
@@ -3760,19 +3760,19 @@
         <v>4902512</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4829794</v>
+        <v>4825128</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4982014</v>
+        <v>4976158</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7074076239642118</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6969147732333703</v>
+        <v>0.6962414730955538</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7188792999300699</v>
+        <v>0.7180343044855814</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>61806</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47351</v>
+        <v>46723</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79939</v>
+        <v>79129</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05492413359455584</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04207924113858386</v>
+        <v>0.04152118721417563</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07103864270175911</v>
+        <v>0.07031899973767877</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -4125,19 +4125,19 @@
         <v>51383</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37601</v>
+        <v>38734</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>67425</v>
+        <v>68025</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04096560335434398</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02997810121981134</v>
+        <v>0.03088086588086534</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05375491471069986</v>
+        <v>0.05423374943557419</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>106</v>
@@ -4146,19 +4146,19 @@
         <v>113189</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>91603</v>
+        <v>93952</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>136499</v>
+        <v>139084</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04756650436501732</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03849547744885904</v>
+        <v>0.03948239124639479</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05736234798283379</v>
+        <v>0.05844886530386991</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>192563</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>167918</v>
+        <v>169577</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>222171</v>
+        <v>218576</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1711224793060065</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1492221266804374</v>
+        <v>0.1506956568338717</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1974338892422993</v>
+        <v>0.1942392966837547</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>302</v>
@@ -4196,19 +4196,19 @@
         <v>334327</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>303128</v>
+        <v>304198</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>370275</v>
+        <v>364856</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2665454642920726</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2416715771001335</v>
+        <v>0.2425252109605514</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2952051927055132</v>
+        <v>0.2908849907420201</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>481</v>
@@ -4217,19 +4217,19 @@
         <v>526890</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>485143</v>
+        <v>488666</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>564408</v>
+        <v>573366</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.22142053586505</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2038769365366198</v>
+        <v>0.2053574492465904</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.23718745846539</v>
+        <v>0.2409516538176775</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>870924</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>840312</v>
+        <v>840750</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>899262</v>
+        <v>896362</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7739533870994376</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7467502657473124</v>
+        <v>0.7471391810360033</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7991365897257047</v>
+        <v>0.7965594768933472</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>835</v>
@@ -4267,19 +4267,19 @@
         <v>868586</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>831479</v>
+        <v>836157</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>904460</v>
+        <v>901234</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6924889323535834</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6629052210479764</v>
+        <v>0.6666347546924336</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7210894783569081</v>
+        <v>0.7185177835264221</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1660</v>
@@ -4288,19 +4288,19 @@
         <v>1739510</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1694906</v>
+        <v>1692930</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1783168</v>
+        <v>1783680</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7310129597699326</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7122687303959861</v>
+        <v>0.7114382568213402</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7493597663087302</v>
+        <v>0.7495750911979098</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>42047</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30138</v>
+        <v>30174</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>56929</v>
+        <v>55927</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04638499094246123</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03324754088687255</v>
+        <v>0.03328676661550495</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06280119014216723</v>
+        <v>0.0616967431598931</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>39</v>
@@ -4413,19 +4413,19 @@
         <v>41755</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>29648</v>
+        <v>30552</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>55563</v>
+        <v>54914</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04161023483561992</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02954507530215114</v>
+        <v>0.03044641037334108</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05536985662628981</v>
+        <v>0.05472391363967249</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>81</v>
@@ -4434,19 +4434,19 @@
         <v>83803</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>67111</v>
+        <v>66991</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>105745</v>
+        <v>104360</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04387637503269563</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03513721975670975</v>
+        <v>0.03507449325331861</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05536475842975133</v>
+        <v>0.05463964913406603</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>161555</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>138450</v>
+        <v>138164</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>185442</v>
+        <v>186019</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1782208811844751</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1527328220491696</v>
+        <v>0.1524163153335407</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2045716519739793</v>
+        <v>0.205208107916406</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>218</v>
@@ -4484,19 +4484,19 @@
         <v>235795</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>209973</v>
+        <v>208602</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>265081</v>
+        <v>265962</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.234976597600465</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2092442707268179</v>
+        <v>0.2078779356527364</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2641607394377779</v>
+        <v>0.2650386367118124</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>373</v>
@@ -4505,19 +4505,19 @@
         <v>397350</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>360173</v>
+        <v>358366</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>436332</v>
+        <v>432326</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2080398478469392</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1885752106901002</v>
+        <v>0.1876291706694241</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2284495982011181</v>
+        <v>0.2263520437482424</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>702885</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>676233</v>
+        <v>676754</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>726844</v>
+        <v>728907</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7753941278730637</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7459926010497481</v>
+        <v>0.7465672352625402</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8018242951753504</v>
+        <v>0.8040997243381768</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>691</v>
@@ -4555,19 +4555,19 @@
         <v>725932</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>696554</v>
+        <v>693652</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>753560</v>
+        <v>753892</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.723413167563915</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6941374698874249</v>
+        <v>0.6912452504888795</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7509453802511906</v>
+        <v>0.7512760649926916</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1373</v>
@@ -4576,19 +4576,19 @@
         <v>1428818</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1385856</v>
+        <v>1390025</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1468113</v>
+        <v>1468395</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7480837771203652</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7255907055167472</v>
+        <v>0.7277729705771122</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.768657749317076</v>
+        <v>0.7688051864291324</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>43921</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33455</v>
+        <v>32136</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>60241</v>
+        <v>59557</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05331798905546054</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04061201314068795</v>
+        <v>0.03901116932313128</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07312968758980323</v>
+        <v>0.07229934049806014</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>35</v>
@@ -4701,19 +4701,19 @@
         <v>40581</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>28936</v>
+        <v>28833</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>55795</v>
+        <v>55152</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05285029166540536</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03768517017529154</v>
+        <v>0.03755073322397698</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07266434692669517</v>
+        <v>0.07182675582888272</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>81</v>
@@ -4722,19 +4722,19 @@
         <v>84502</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>67157</v>
+        <v>67081</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>103284</v>
+        <v>103708</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05309235528373311</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04219476675221529</v>
+        <v>0.04214641271997428</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06489301976769299</v>
+        <v>0.0651590752143628</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>132674</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>112139</v>
+        <v>113192</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>154166</v>
+        <v>156597</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1610593963188792</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1361311305384444</v>
+        <v>0.1374092012148753</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1871493829134328</v>
+        <v>0.1901004508925449</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>149</v>
@@ -4772,19 +4772,19 @@
         <v>161337</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>140855</v>
+        <v>141863</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>186157</v>
+        <v>186991</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2101154707125185</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1834418383754506</v>
+        <v>0.1847542972712184</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.242439865230594</v>
+        <v>0.2435262861510119</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>270</v>
@@ -4793,19 +4793,19 @@
         <v>294011</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>265698</v>
+        <v>261298</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>330436</v>
+        <v>325520</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1847257825911493</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1669368252808447</v>
+        <v>0.1641725530465144</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2076118228439577</v>
+        <v>0.204522957774603</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>647164</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>624301</v>
+        <v>620626</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>670062</v>
+        <v>669519</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7856226146256603</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7578687925876155</v>
+        <v>0.7534073627847779</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8134194632325407</v>
+        <v>0.8127602350901566</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>541</v>
@@ -4843,19 +4843,19 @@
         <v>565930</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>542093</v>
+        <v>539647</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>590144</v>
+        <v>588855</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7370342376220762</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7059911895407087</v>
+        <v>0.702805334118606</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7685702256947098</v>
+        <v>0.7668913485183261</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1161</v>
@@ -4864,19 +4864,19 @@
         <v>1213094</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1173409</v>
+        <v>1178191</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1244887</v>
+        <v>1246192</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7621818621251176</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7372480315222051</v>
+        <v>0.7402524393445253</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7821574486889394</v>
+        <v>0.7829772175320544</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>36246</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26376</v>
+        <v>26372</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49252</v>
+        <v>48114</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07177682189899741</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05223124994730036</v>
+        <v>0.05222464200648126</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09753363658118562</v>
+        <v>0.09527900776336497</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -4989,19 +4989,19 @@
         <v>29652</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19945</v>
+        <v>19551</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42755</v>
+        <v>42491</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06093367467701281</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04098518675347711</v>
+        <v>0.04017658181147053</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08785925366112714</v>
+        <v>0.08731637419857938</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -5010,19 +5010,19 @@
         <v>65898</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>51790</v>
+        <v>52472</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>82728</v>
+        <v>83841</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06645556974228373</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05222846841836552</v>
+        <v>0.05291592551429263</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0834280985272116</v>
+        <v>0.08455128008330583</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>108215</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>90862</v>
+        <v>91237</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>129737</v>
+        <v>129827</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2142975352179834</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1799335206098857</v>
+        <v>0.1806764494388732</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2569165208384654</v>
+        <v>0.2570955175828918</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>98</v>
@@ -5060,19 +5060,19 @@
         <v>107518</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>89720</v>
+        <v>90143</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>127820</v>
+        <v>128322</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2209442981766828</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1843705529907929</v>
+        <v>0.1852407397569484</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2626638234194515</v>
+        <v>0.2636972893008422</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>197</v>
@@ -5081,19 +5081,19 @@
         <v>215733</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>191653</v>
+        <v>190166</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>244955</v>
+        <v>246422</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2175594204442056</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1932753361090132</v>
+        <v>0.1917759830147571</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2470291660203535</v>
+        <v>0.2485083704904219</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>360515</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>336635</v>
+        <v>338443</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>378969</v>
+        <v>380830</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7139256428830192</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6666359337666574</v>
+        <v>0.6702167601347754</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7504695974623303</v>
+        <v>0.7541555484491734</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>329</v>
@@ -5131,19 +5131,19 @@
         <v>349458</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>329218</v>
+        <v>326305</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>369004</v>
+        <v>370505</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7181220271463044</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.676529512572739</v>
+        <v>0.6705429154408749</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7582868471898226</v>
+        <v>0.7613727264706904</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>662</v>
@@ -5152,19 +5152,19 @@
         <v>709974</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>680260</v>
+        <v>679850</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>738445</v>
+        <v>737661</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7159850098135107</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6860196994760492</v>
+        <v>0.6856060359266966</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7446974409906036</v>
+        <v>0.7439070742259635</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>184020</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>157203</v>
+        <v>160182</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>211502</v>
+        <v>211675</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05475942631200527</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04677927463890061</v>
+        <v>0.04766590784330066</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06293745605150569</v>
+        <v>0.06298873330538136</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>146</v>
@@ -5277,19 +5277,19 @@
         <v>163371</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>140637</v>
+        <v>138082</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>192900</v>
+        <v>190531</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0465146108570187</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04004192945525043</v>
+        <v>0.03931445690727745</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05492213968094428</v>
+        <v>0.05424763605303987</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>331</v>
@@ -5298,19 +5298,19 @@
         <v>347391</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>312903</v>
+        <v>313590</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>387011</v>
+        <v>386470</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05054600423615888</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04552795561909762</v>
+        <v>0.04562791054976267</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05631077101660457</v>
+        <v>0.05623209944336831</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>595007</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>550079</v>
+        <v>550466</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>640347</v>
+        <v>639115</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1770583053125111</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1636888031775537</v>
+        <v>0.163804126461467</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1905503409418723</v>
+        <v>0.1901834904892721</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>767</v>
@@ -5348,19 +5348,19 @@
         <v>838976</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>785464</v>
+        <v>791291</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>892907</v>
+        <v>893819</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2388711463628049</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.223635485356365</v>
+        <v>0.2252943814515725</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2542263808316907</v>
+        <v>0.2544858210889113</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1321</v>
@@ -5369,19 +5369,19 @@
         <v>1433983</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1367036</v>
+        <v>1367340</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1505480</v>
+        <v>1505748</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2086470765195819</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1989061061209076</v>
+        <v>0.1989504263639373</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2190500062142067</v>
+        <v>0.2190889177941551</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>2581489</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2532761</v>
+        <v>2531754</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2630137</v>
+        <v>2625366</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7681822683754836</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.753682189941341</v>
+        <v>0.7533824170446335</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.78265878964261</v>
+        <v>0.7812389446330936</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2396</v>
@@ -5419,19 +5419,19 @@
         <v>2509906</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2453822</v>
+        <v>2451414</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2562205</v>
+        <v>2559664</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7146142427801764</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.698646183296219</v>
+        <v>0.6979604791916636</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7295048081066533</v>
+        <v>0.7287812851590502</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4856</v>
@@ -5440,19 +5440,19 @@
         <v>5091395</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5019701</v>
+        <v>5016045</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5161658</v>
+        <v>5158613</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7408069192442592</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7303752790124456</v>
+        <v>0.729843397230183</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.751030376247805</v>
+        <v>0.7505872593908317</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>11052</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5637</v>
+        <v>5966</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19667</v>
+        <v>19625</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02313287984604498</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01179902741833761</v>
+        <v>0.01248655819314186</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04116514521781321</v>
+        <v>0.04107685918202289</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -5805,19 +5805,19 @@
         <v>16092</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10114</v>
+        <v>9998</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24932</v>
+        <v>25419</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02683624492235247</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01686680185411102</v>
+        <v>0.01667270787026256</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04157830730323197</v>
+        <v>0.04238973155081945</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -5826,19 +5826,19 @@
         <v>27144</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18615</v>
+        <v>19224</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37427</v>
+        <v>39767</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02519402522737911</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01727787964005955</v>
+        <v>0.0178430386875772</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03473748264656855</v>
+        <v>0.03690963366753208</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>122894</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>103051</v>
+        <v>104992</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144702</v>
+        <v>145026</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2572257667795174</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2156924717181946</v>
+        <v>0.2197570931174918</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3028714465341591</v>
+        <v>0.3035498101675732</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>302</v>
@@ -5876,19 +5876,19 @@
         <v>193795</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>174524</v>
+        <v>175190</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>214471</v>
+        <v>213193</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3231835751107325</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2910472629375374</v>
+        <v>0.2921567490724158</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3576640259685234</v>
+        <v>0.355533812681779</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>425</v>
@@ -5897,19 +5897,19 @@
         <v>316689</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>288267</v>
+        <v>289502</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>347606</v>
+        <v>348400</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2939352537470717</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2675552846515074</v>
+        <v>0.2687020495116701</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.322631471806495</v>
+        <v>0.3233679305852275</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>343820</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>322118</v>
+        <v>320147</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>364521</v>
+        <v>361742</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7196413533744377</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6742169595899523</v>
+        <v>0.6700916887909695</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7629702596060164</v>
+        <v>0.7571529173457378</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>501</v>
@@ -5947,19 +5947,19 @@
         <v>389756</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>368646</v>
+        <v>368931</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>409782</v>
+        <v>409218</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.649980179966915</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6147758236287305</v>
+        <v>0.6152514162523551</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6833770112582492</v>
+        <v>0.682436579128113</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>811</v>
@@ -5968,19 +5968,19 @@
         <v>733577</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>703642</v>
+        <v>701325</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>762383</v>
+        <v>760559</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6808707210255491</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.65308670953006</v>
+        <v>0.6509362162557381</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7076075080147264</v>
+        <v>0.7059144232986188</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>13276</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7644</v>
+        <v>7669</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21710</v>
+        <v>20942</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01494492045072078</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008605225228596643</v>
+        <v>0.008633061059832855</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02443910756514434</v>
+        <v>0.0235746209055865</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>48</v>
@@ -6093,19 +6093,19 @@
         <v>36480</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26594</v>
+        <v>26478</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50309</v>
+        <v>49250</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.03457820712586891</v>
+        <v>0.03457820712586892</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02520733316522439</v>
+        <v>0.02509751812859764</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04768519664695207</v>
+        <v>0.04668177378059241</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>64</v>
@@ -6114,19 +6114,19 @@
         <v>49756</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>37759</v>
+        <v>38157</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>64073</v>
+        <v>64871</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02560357392582758</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01942972540593661</v>
+        <v>0.01963456976584319</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03297058650088829</v>
+        <v>0.0333811333043579</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>169231</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>146893</v>
+        <v>147985</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>195762</v>
+        <v>193255</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1905051767055661</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.165359820458879</v>
+        <v>0.1665884675911704</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2203717719777546</v>
+        <v>0.2175498919185333</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>443</v>
@@ -6164,19 +6164,19 @@
         <v>271304</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>248396</v>
+        <v>249935</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>294720</v>
+        <v>295562</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2571573104723678</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.235443546707346</v>
+        <v>0.2369022428852287</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2793520068111205</v>
+        <v>0.2801505400076376</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>636</v>
@@ -6185,19 +6185,19 @@
         <v>440535</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>406127</v>
+        <v>408307</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>472501</v>
+        <v>474904</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2266897447277943</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2089843174151356</v>
+        <v>0.2101060952942068</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2431387054855525</v>
+        <v>0.2443755859072927</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>705819</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>679219</v>
+        <v>682160</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>728602</v>
+        <v>728193</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7945499028437131</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7646064326857372</v>
+        <v>0.7679167826759128</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8201978052403878</v>
+        <v>0.8197372997143536</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1040</v>
@@ -6235,19 +6235,19 @@
         <v>747228</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>722854</v>
+        <v>723115</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>771635</v>
+        <v>772489</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7082644824017632</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6851609486851271</v>
+        <v>0.6854089329942863</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7313981380801505</v>
+        <v>0.7322083037042836</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1693</v>
@@ -6256,19 +6256,19 @@
         <v>1453047</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1419700</v>
+        <v>1414292</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1488262</v>
+        <v>1487415</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7477066813463783</v>
+        <v>0.7477066813463781</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7305471684619339</v>
+        <v>0.7277642927578741</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7658277511069033</v>
+        <v>0.7653918546364232</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>14048</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8161</v>
+        <v>8907</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22393</v>
+        <v>22082</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01353050505660984</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007860358419169031</v>
+        <v>0.008578689196652776</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02156802285379681</v>
+        <v>0.02126791769092942</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>30</v>
@@ -6381,19 +6381,19 @@
         <v>18698</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12820</v>
+        <v>12725</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>27633</v>
+        <v>27321</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01806055449816124</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01238323508655531</v>
+        <v>0.0122918059516802</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02669130745328573</v>
+        <v>0.02638983077835201</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>47</v>
@@ -6402,19 +6402,19 @@
         <v>32746</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>23657</v>
+        <v>23183</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>43280</v>
+        <v>43069</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01579225237209864</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01140899197808052</v>
+        <v>0.01118031747751115</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02087246703874089</v>
+        <v>0.02077069899286764</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>220584</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>193382</v>
+        <v>195223</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>249159</v>
+        <v>251705</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2124533124358031</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1862541766316946</v>
+        <v>0.1880277435732826</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2399755808989918</v>
+        <v>0.2424278551201183</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>429</v>
@@ -6452,19 +6452,19 @@
         <v>256936</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>235850</v>
+        <v>232831</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>280477</v>
+        <v>280561</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2481829128369845</v>
+        <v>0.2481829128369846</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2278149745709594</v>
+        <v>0.2248989175312243</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2709217201933458</v>
+        <v>0.2710028910043205</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>665</v>
@@ -6473,19 +6473,19 @@
         <v>477520</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>443294</v>
+        <v>439654</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>510762</v>
+        <v>515047</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2302922629447371</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2137864569702761</v>
+        <v>0.2120308632605777</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2463240937555864</v>
+        <v>0.2483906035491084</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>803637</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>775599</v>
+        <v>771974</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>831939</v>
+        <v>831334</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7740161825075869</v>
+        <v>0.774016182507587</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7470111848722586</v>
+        <v>0.7435201117050276</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8012745360156613</v>
+        <v>0.8006926638619769</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1037</v>
@@ -6523,19 +6523,19 @@
         <v>759635</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>734366</v>
+        <v>735116</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>781954</v>
+        <v>782919</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7337565326648542</v>
+        <v>0.7337565326648544</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7093483920550294</v>
+        <v>0.7100726189005446</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7553147618297339</v>
+        <v>0.756247219105511</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1805</v>
@@ -6544,19 +6544,19 @@
         <v>1563272</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1529294</v>
+        <v>1523691</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1598522</v>
+        <v>1601493</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7539154846831642</v>
+        <v>0.7539154846831643</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7375291816164885</v>
+        <v>0.7348268412087678</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7709157785417126</v>
+        <v>0.7723483733658849</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>13489</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8531</v>
+        <v>8021</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20937</v>
+        <v>21019</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.01384502793518263</v>
+        <v>0.01384502793518262</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008756471052087506</v>
+        <v>0.008232495900587078</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02148998221143589</v>
+        <v>0.02157397677659073</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -6669,19 +6669,19 @@
         <v>21690</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14948</v>
+        <v>15077</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31121</v>
+        <v>30287</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02413593692218705</v>
+        <v>0.02413593692218704</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01663433657460462</v>
+        <v>0.01677774923648459</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03463101366590386</v>
+        <v>0.03370288163915509</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -6690,19 +6690,19 @@
         <v>35179</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26706</v>
+        <v>26237</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45925</v>
+        <v>46365</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01878267598378764</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01425908892855864</v>
+        <v>0.01400875208480178</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02452059260334306</v>
+        <v>0.02475547146486965</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>265382</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>237648</v>
+        <v>236511</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>295939</v>
+        <v>295798</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2723857830566544</v>
+        <v>0.2723857830566543</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2439201468523137</v>
+        <v>0.2427523506903215</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3037487619917805</v>
+        <v>0.3036040741803619</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>459</v>
@@ -6740,19 +6740,19 @@
         <v>287510</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>263574</v>
+        <v>263067</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>313899</v>
+        <v>313201</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3199367161840787</v>
+        <v>0.3199367161840788</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2933012568161705</v>
+        <v>0.2927372027226077</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3493022882346644</v>
+        <v>0.3485254884074942</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>743</v>
@@ -6761,19 +6761,19 @@
         <v>552892</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>515086</v>
+        <v>514012</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>595751</v>
+        <v>590028</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2952010438331777</v>
+        <v>0.2952010438331778</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2750155033833271</v>
+        <v>0.2744418703023712</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3180839544512427</v>
+        <v>0.315028559707002</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>695417</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>665588</v>
+        <v>664716</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>723969</v>
+        <v>725138</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7137691890081631</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6831531403564379</v>
+        <v>0.6822582110556105</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7430753711228165</v>
+        <v>0.7442747872267022</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>813</v>
@@ -6811,19 +6811,19 @@
         <v>589447</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>563021</v>
+        <v>562661</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>614094</v>
+        <v>614051</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6559273468937343</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.626520609084143</v>
+        <v>0.6261201846250325</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6833540256593449</v>
+        <v>0.6833064005919061</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1455</v>
@@ -6832,19 +6832,19 @@
         <v>1284864</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1240701</v>
+        <v>1247452</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1322370</v>
+        <v>1324909</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6860162801830345</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6624368271459389</v>
+        <v>0.6660413892441979</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.706041580768312</v>
+        <v>0.7073970780772166</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>51865</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>40272</v>
+        <v>40298</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>67335</v>
+        <v>66380</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01535093384624621</v>
+        <v>0.0153509338462462</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01191942090031065</v>
+        <v>0.01192724199085733</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01992971101541805</v>
+        <v>0.01964703392509293</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>134</v>
@@ -6957,19 +6957,19 @@
         <v>92960</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>78515</v>
+        <v>77594</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>111585</v>
+        <v>112321</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.02590441098150126</v>
+        <v>0.02590441098150127</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02187904515671874</v>
+        <v>0.02162265243815366</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03109443445768614</v>
+        <v>0.03129956803724873</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>197</v>
@@ -6978,19 +6978,19 @@
         <v>144825</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>124193</v>
+        <v>125281</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>167401</v>
+        <v>167099</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02078666088087823</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01782539052493452</v>
+        <v>0.01798152295286389</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02402699177963701</v>
+        <v>0.02398365083176827</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>778090</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>730394</v>
+        <v>728625</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>835292</v>
+        <v>830075</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2302962987073917</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2161794597949173</v>
+        <v>0.2156559299550732</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2472266153717498</v>
+        <v>0.2456827261637617</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1633</v>
@@ -7028,19 +7028,19 @@
         <v>1009545</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>961472</v>
+        <v>966823</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1055997</v>
+        <v>1055233</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2813223069715742</v>
+        <v>0.2813223069715743</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2679260535321389</v>
+        <v>0.2694172799317061</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2942666350456423</v>
+        <v>0.294053688665786</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2469</v>
@@ -7049,19 +7049,19 @@
         <v>1787635</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1716577</v>
+        <v>1725678</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1852336</v>
+        <v>1868181</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2565780112686868</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2463790447735259</v>
+        <v>0.2476853551236711</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2658644147705475</v>
+        <v>0.2681386712875318</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>2548692</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2491736</v>
+        <v>2494516</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2598775</v>
+        <v>2600567</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.754352767446362</v>
+        <v>0.7543527674463621</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7374949146891158</v>
+        <v>0.7383177137136402</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7691759622592238</v>
+        <v>0.769706319804602</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3391</v>
@@ -7099,19 +7099,19 @@
         <v>2486066</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2436318</v>
+        <v>2440076</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2531885</v>
+        <v>2532316</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6927732820469243</v>
+        <v>0.6927732820469246</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6789103623713394</v>
+        <v>0.6799575597217261</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.705541350805493</v>
+        <v>0.7056612962084626</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5764</v>
@@ -7120,19 +7120,19 @@
         <v>5034759</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4968222</v>
+        <v>4949895</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5108130</v>
+        <v>5095722</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7226353278504348</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7130852690200331</v>
+        <v>0.7104548244108548</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7331662205109424</v>
+        <v>0.7313852438285128</v>
       </c>
     </row>
     <row r="23">
